--- a/无向图的邻接矩阵.xlsx
+++ b/无向图的邻接矩阵.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengchongtai/develop/c/learning_journey/data_structure/c-learning-graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD8FBD-3F38-D347-90DB-419217651687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7596A-4BE3-2547-89AD-01B1E3815949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="680" windowWidth="15660" windowHeight="17200" activeTab="1" xr2:uid="{2F28C6CB-19F5-D34A-9084-377B134AE5AE}"/>
+    <workbookView xWindow="60" yWindow="680" windowWidth="11020" windowHeight="17200" firstSheet="1" activeTab="2" xr2:uid="{2F28C6CB-19F5-D34A-9084-377B134AE5AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="深度 广度优先" sheetId="1" r:id="rId1"/>
+    <sheet name="最小生成树普里姆算法" sheetId="2" r:id="rId2"/>
+    <sheet name="最小生成树克鲁斯卡尔算法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="64">
   <si>
     <t>A</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>∞</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>weight</t>
@@ -105,12 +109,157 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边索引</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>边的描述</t>
+  </si>
+  <si>
+    <t>edges[0]</t>
+  </si>
+  <si>
+    <t>0 (A)</t>
+  </si>
+  <si>
+    <t>1 (B)</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>edges[1]</t>
+  </si>
+  <si>
+    <t>5 (F)</t>
+  </si>
+  <si>
+    <t>A-F</t>
+  </si>
+  <si>
+    <t>edges[2]</t>
+  </si>
+  <si>
+    <t>2 (C)</t>
+  </si>
+  <si>
+    <t>B-C</t>
+  </si>
+  <si>
+    <t>edges[3]</t>
+  </si>
+  <si>
+    <t>6 (G)</t>
+  </si>
+  <si>
+    <t>B-G</t>
+  </si>
+  <si>
+    <t>edges[4]</t>
+  </si>
+  <si>
+    <t>8 (I)</t>
+  </si>
+  <si>
+    <t>B-I</t>
+  </si>
+  <si>
+    <t>edges[5]</t>
+  </si>
+  <si>
+    <t>3 (D)</t>
+  </si>
+  <si>
+    <t>C-D</t>
+  </si>
+  <si>
+    <t>edges[6]</t>
+  </si>
+  <si>
+    <t>C-I</t>
+  </si>
+  <si>
+    <t>edges[7]</t>
+  </si>
+  <si>
+    <t>4 (E)</t>
+  </si>
+  <si>
+    <t>D-E</t>
+  </si>
+  <si>
+    <t>edges[8]</t>
+  </si>
+  <si>
+    <t>D-G</t>
+  </si>
+  <si>
+    <t>edges[9]</t>
+  </si>
+  <si>
+    <t>7 (H)</t>
+  </si>
+  <si>
+    <t>D-H</t>
+  </si>
+  <si>
+    <t>edges[10]</t>
+  </si>
+  <si>
+    <t>D-I</t>
+  </si>
+  <si>
+    <t>edges[11]</t>
+  </si>
+  <si>
+    <t>E-F</t>
+  </si>
+  <si>
+    <t>edges[12]</t>
+  </si>
+  <si>
+    <t>E-H</t>
+  </si>
+  <si>
+    <t>edges[13]</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>edges[14]</t>
+  </si>
+  <si>
+    <t>G-H</t>
+  </si>
+  <si>
+    <t>排序前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,8 +321,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +347,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +443,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +770,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -601,7 +780,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="40" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="6">
@@ -1025,15 +1204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DD3AFD-FC3B-6149-84B6-53B4DAA7F755}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="86" zoomScaleNormal="171" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="6">
@@ -1275,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -1425,48 +1605,102 @@
     </row>
     <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="20">
       <c r="A17" s="1"/>
@@ -1585,5 +1819,1164 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ACD0B1-0614-2D4D-B61A-985B858A489D}">
+  <dimension ref="A1:AD25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="171" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="14" max="18" width="20.83203125" style="2" customWidth="1"/>
+    <col min="20" max="24" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="40" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="T1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+    </row>
+    <row r="2" spans="1:30" ht="40" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="40" customHeight="1">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>10</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="7">
+        <v>7</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="40" customHeight="1">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>11</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="7">
+        <v>8</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" ht="40" customHeight="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>8</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="7">
+        <v>10</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" ht="40" customHeight="1">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7">
+        <v>21</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>16</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="7">
+        <v>11</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" ht="40" customHeight="1">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>12</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="7">
+        <v>12</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" ht="40" customHeight="1">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>22</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="7">
+        <v>16</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" ht="40" customHeight="1">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>8</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="7">
+        <v>16</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" ht="40" customHeight="1">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>20</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="7">
+        <v>17</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" ht="40" customHeight="1">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>24</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="7">
+        <v>18</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" ht="40" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="N12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>16</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="7">
+        <v>19</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" ht="40" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>21</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="7">
+        <v>20</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" ht="40" customHeight="1">
+      <c r="N14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>26</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="7">
+        <v>21</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="N15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>7</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="7">
+        <v>22</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" ht="40" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="N16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>17</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="7">
+        <v>24</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="40" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="N17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>19</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="7">
+        <v>26</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="20">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="20">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="20">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="20">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="20">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" ht="20">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="20">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>